--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_3.xlsx
@@ -518,166 +518,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_2</t>
+          <t>model_14_3_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998558090237906</v>
+        <v>0.9999920117754557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991840447523281</v>
+        <v>0.9991125242432539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9995255601389128</v>
+        <v>0.9999728434282971</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999588237616306</v>
+        <v>0.9999642387964877</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999614048728497</v>
+        <v>0.999986380093484</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001345959470391579</v>
+        <v>7.456656969566666e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000761658407405789</v>
+        <v>0.0008284196632390426</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007892136806194105</v>
+        <v>7.464823918401189e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.741432893649068e-05</v>
+        <v>1.802171973036184e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0004033140047779507</v>
+        <v>1.274327182438151e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006814164378902494</v>
+        <v>0.0002511890420173336</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01160154933787543</v>
+        <v>0.002730688002970436</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000384509269892</v>
+        <v>1.000021301932118</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0120954513117067</v>
+        <v>0.00284693904456032</v>
       </c>
       <c r="P2" t="n">
-        <v>83.82646650471477</v>
+        <v>89.61280674318326</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.0493687253654</v>
+        <v>129.8357089638339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_3</t>
+          <t>model_14_3_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998073458283276</v>
+        <v>0.999991937584752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991803755092168</v>
+        <v>0.9991122926101672</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9993557310313367</v>
+        <v>0.999977179056779</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999443247028277</v>
+        <v>0.999967725567679</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9994759433579899</v>
+        <v>0.9999879559879226</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001798342127153608</v>
+        <v>7.525910734889738e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007650834847890069</v>
+        <v>0.0008286358825579464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001071718305672048</v>
+        <v>6.273042291954201e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>2.354629701477063e-05</v>
+        <v>1.626457491975996e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005476323013434095</v>
+        <v>1.126880860585708e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007711401497023597</v>
+        <v>0.0002484177388690453</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01341022791437047</v>
+        <v>0.002743339340090784</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000513744457793</v>
+        <v>1.000021499773995</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01398112907968393</v>
+        <v>0.00286012897529376</v>
       </c>
       <c r="P3" t="n">
-        <v>83.24695034392536</v>
+        <v>89.59431745352059</v>
       </c>
       <c r="Q3" t="n">
-        <v>123.469852564576</v>
+        <v>129.8172196741712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_1</t>
+          <t>model_14_3_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998968753966609</v>
+        <v>0.9999920706249147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991782856326386</v>
+        <v>0.9991122847843183</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9996733033158379</v>
+        <v>0.9999686655169432</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999611519963548</v>
+        <v>0.9999613113355237</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997321124785477</v>
+        <v>0.9999849779929822</v>
       </c>
       <c r="G4" t="n">
-        <v>9.626229057003505e-05</v>
+        <v>7.401723582831376e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007670342928398938</v>
+        <v>0.0008286431876443105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005434482085102534</v>
+        <v>8.613252112657874e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.642966771111695e-05</v>
+        <v>1.949700232249075e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002799389381106851</v>
+        <v>1.405512721757431e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006069102807898838</v>
+        <v>0.0002524248958336699</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00981133480062907</v>
+        <v>0.002720610884127199</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000274998942237</v>
+        <v>1.000021145000227</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01022902363535478</v>
+        <v>0.002836432921905415</v>
       </c>
       <c r="P4" t="n">
-        <v>84.49686779742893</v>
+        <v>89.62759533655235</v>
       </c>
       <c r="Q4" t="n">
-        <v>124.7197700180796</v>
+        <v>129.850497557203</v>
       </c>
     </row>
     <row r="5">
@@ -687,877 +687,877 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997528201756423</v>
+        <v>0.9999918252021602</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991681133535073</v>
+        <v>0.9991117782373165</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9991677610912999</v>
+        <v>0.9999815934191023</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999199943495476</v>
+        <v>0.999971725098861</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9993214097939775</v>
+        <v>0.9999896815377326</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002307315160976661</v>
+        <v>7.630814951249831e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007765296688974548</v>
+        <v>0.0008291160270358211</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001384399554423614</v>
+        <v>5.059618233264319e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>3.383613387065229e-05</v>
+        <v>1.424902670165133e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0007091178441471332</v>
+        <v>9.654322467457826e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008576037707298583</v>
+        <v>0.0002445542079658538</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01518984911372283</v>
+        <v>0.002762392975528614</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000659146198287</v>
+        <v>1.000021799460906</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01583651243781646</v>
+        <v>0.002879993763438641</v>
       </c>
       <c r="P5" t="n">
-        <v>82.74851158275038</v>
+        <v>89.56663181911539</v>
       </c>
       <c r="Q5" t="n">
-        <v>122.971413803401</v>
+        <v>129.789534039766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_0</t>
+          <t>model_14_3_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999297713423942</v>
+        <v>0.9999922197234228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991620991155653</v>
+        <v>0.999110421939737</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9997968846403433</v>
+        <v>0.9999655099530119</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999496194830936</v>
+        <v>0.9999594194193199</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999828140359599</v>
+        <v>0.9999840049497064</v>
       </c>
       <c r="G6" t="n">
-        <v>6.555536919320826e-05</v>
+        <v>7.262546670174476e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00078214369602172</v>
+        <v>0.000830382071291611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003378751106992926</v>
+        <v>9.480656487838511e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>2.130701900276949e-05</v>
+        <v>2.045042615138032e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000179591064851031</v>
+        <v>1.496554131960942e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005495199158431299</v>
+        <v>0.0002504519150672314</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008096627025694605</v>
+        <v>0.002694911254600878</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000187276420282</v>
+        <v>1.000020747404206</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008441317200506933</v>
+        <v>0.002809639205944591</v>
       </c>
       <c r="P6" t="n">
-        <v>85.26523088244048</v>
+        <v>89.66556001924215</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.4881331030911</v>
+        <v>129.8884622398928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_5</t>
+          <t>model_14_3_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999692689008604</v>
+        <v>0.9999922166642446</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991480716025174</v>
+        <v>0.9991094286993618</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9989629707759934</v>
+        <v>0.9999617781392699</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998865439367759</v>
+        <v>0.999957109016302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9991516429461939</v>
+        <v>0.9999828345567228</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002868613210747105</v>
+        <v>7.265402278629831e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000795237763715313</v>
+        <v>0.0008313092175836075</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001725060893729916</v>
+        <v>1.050646095188112e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>4.798304272239511e-05</v>
+        <v>2.161474478619021e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0008865219682261556</v>
+        <v>1.606060286903567e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009418293303793143</v>
+        <v>0.0002499358888483778</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01693698087247874</v>
+        <v>0.002695441017464458</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000819495977056</v>
+        <v>1.000020755562014</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01765802321260393</v>
+        <v>0.002810191521910034</v>
       </c>
       <c r="P7" t="n">
-        <v>82.31302332162912</v>
+        <v>89.66477378066101</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.5359255422797</v>
+        <v>129.8876760013116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_6</t>
+          <t>model_14_3_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996289488285494</v>
+        <v>0.9999918543909401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991215352076261</v>
+        <v>0.9991088502597452</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9987477105307407</v>
+        <v>0.9999867448544772</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998460655668303</v>
+        <v>0.9999768579708094</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9989721206508024</v>
+        <v>0.9999918205764406</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003463599812851805</v>
+        <v>7.603568506522638e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008200083235331398</v>
+        <v>0.0008318491655752425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002083138585721509</v>
+        <v>3.643586842350789e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>6.510222788744551e-05</v>
+        <v>1.166233580257337e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001074120406804477</v>
+        <v>7.652961322462078e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00102197771522449</v>
+        <v>0.0002361632065251698</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0186107490790989</v>
+        <v>0.002757456891144926</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000989469790535</v>
+        <v>1.00002172162416</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01940304719695775</v>
+        <v>0.002874847539723636</v>
       </c>
       <c r="P8" t="n">
-        <v>81.93606383083505</v>
+        <v>89.57378576107926</v>
       </c>
       <c r="Q8" t="n">
-        <v>122.1589660514857</v>
+        <v>129.7966879817299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_7</t>
+          <t>model_14_3_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995623527979022</v>
+        <v>0.9999922733488369</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990894942140086</v>
+        <v>0.9991078906534974</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9985242771487033</v>
+        <v>0.9999586187314166</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997996906827401</v>
+        <v>0.9999555503772798</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9987848999408173</v>
+        <v>0.999981950702598</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004085244526663491</v>
+        <v>7.212489699968881e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008499171846380992</v>
+        <v>0.0008327449158857014</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002454811997409484</v>
+        <v>1.137492194795788e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>8.471517744086288e-05</v>
+        <v>2.240021487277274e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001269763587425173</v>
+        <v>1.688756841036531e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001098235112900476</v>
+        <v>0.0002469087511903551</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02021198784549281</v>
+        <v>0.002685607882764884</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001167059205594</v>
+        <v>1.000020604403102</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02107245401265825</v>
+        <v>0.002799939770308904</v>
       </c>
       <c r="P9" t="n">
-        <v>81.60591757161478</v>
+        <v>89.67939270842329</v>
       </c>
       <c r="Q9" t="n">
-        <v>121.8288197922654</v>
+        <v>129.9022949290739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_8</t>
+          <t>model_14_3_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994951416036445</v>
+        <v>0.9999923859426936</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990536603971815</v>
+        <v>0.9991061710331669</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9982999060920157</v>
+        <v>0.9999560381093447</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999749662541301</v>
+        <v>0.9999545849789507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9985961936474025</v>
+        <v>0.9999813116331079</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000471263152275451</v>
+        <v>7.107388277031639e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008833664797234465</v>
+        <v>0.0008343501059815606</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002828045197223341</v>
+        <v>1.208428576518915e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000105873169175941</v>
+        <v>2.288672361421538e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001466959183199641</v>
+        <v>1.748550468970226e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001168962596773864</v>
+        <v>0.0002409926572430378</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0217085962760251</v>
+        <v>0.002665968543893877</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001346289056948</v>
+        <v>1.000020304152817</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02263277616248485</v>
+        <v>0.002779464344123123</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32018782050737</v>
+        <v>89.70875142513908</v>
       </c>
       <c r="Q10" t="n">
-        <v>121.543090041158</v>
+        <v>129.9316536457897</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_9</t>
+          <t>model_14_3_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994280851307525</v>
+        <v>0.999991683281332</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990151659790306</v>
+        <v>0.9991058433826181</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9980771192965479</v>
+        <v>0.9999915455309482</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9996964613203921</v>
+        <v>0.9999817422114793</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9984081062121033</v>
+        <v>0.9999938411322359</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0005338574262811018</v>
+        <v>7.763291814744054e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009192993293575835</v>
+        <v>0.0008346559533866772</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00319864303535959</v>
+        <v>2.323972388190915e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001283731253987701</v>
+        <v>9.200941671425581e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00166350808037918</v>
+        <v>5.762457029808248e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001234713287890586</v>
+        <v>0.0002262205520019714</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02310535492653384</v>
+        <v>0.002786268439103464</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001525106317993</v>
+        <v>1.000022177916448</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02408899772043475</v>
+        <v>0.002904885654926896</v>
       </c>
       <c r="P11" t="n">
-        <v>81.07076349327149</v>
+        <v>89.53220822157368</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.2936657139221</v>
+        <v>129.7551104422243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_10</t>
+          <t>model_14_3_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9993633870302395</v>
+        <v>0.9999924712790416</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989758756623477</v>
+        <v>0.9991045096873606</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9978630141911744</v>
+        <v>0.9999536043649522</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9996423895219954</v>
+        <v>0.9999537802434867</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9982267525905493</v>
+        <v>0.999980737406853</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0005942502631916148</v>
+        <v>7.027730542060042e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009559751153354822</v>
+        <v>0.0008359008993670769</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003554799193621632</v>
+        <v>1.275327570808522e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001512412678216403</v>
+        <v>2.329226692836551e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001853020230721636</v>
+        <v>1.802277131822537e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001294546568337875</v>
+        <v>0.0002355928217131944</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02437724888480271</v>
+        <v>0.00265098671103045</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001697634586028</v>
+        <v>1.000020076589222</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02541503883769058</v>
+        <v>0.00276384470361803</v>
       </c>
       <c r="P12" t="n">
-        <v>80.85642001765389</v>
+        <v>89.7312934580067</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.0793222383045</v>
+        <v>129.9541956786573</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_11</t>
+          <t>model_14_3_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9993027614441415</v>
+        <v>0.9999925070088648</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989373567602784</v>
+        <v>0.9991029586445093</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9976631263697299</v>
+        <v>0.9999511917733637</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9995892877425072</v>
+        <v>0.9999529317742766</v>
       </c>
       <c r="F13" t="n">
-        <v>0.998056911163433</v>
+        <v>0.9999801545100505</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00065084158665842</v>
+        <v>6.994378320471066e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009919308196327972</v>
+        <v>0.0008373487297859128</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003887305410345967</v>
+        <v>1.341645114836796e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001736991680995696</v>
+        <v>2.371984969414969e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002030502289222769</v>
+        <v>1.856815042125883e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001347802197683553</v>
+        <v>0.0002308318161583231</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02551159710128749</v>
+        <v>0.002644688700106511</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001859302815623</v>
+        <v>1.000019981309694</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02659767860617563</v>
+        <v>0.002757278573330379</v>
       </c>
       <c r="P13" t="n">
-        <v>80.67448856766728</v>
+        <v>89.74080765727948</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.8973907883179</v>
+        <v>129.9637098779301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_12</t>
+          <t>model_14_3_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9992459843707259</v>
+        <v>0.9999925416319742</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989000409867865</v>
+        <v>0.9991014142753663</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9974765050614992</v>
+        <v>0.9999490160098782</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9995374735280282</v>
+        <v>0.9999522981695752</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9978978894455879</v>
+        <v>0.9999796642666453</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0007038404924665385</v>
+        <v>6.962059167567972e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001026763456214364</v>
+        <v>0.0008387903305909296</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004197743258492105</v>
+        <v>1.401452705738395e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001956125290634761</v>
+        <v>2.403915232451634e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00219667789377779</v>
+        <v>1.902683969095015e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001395428943709857</v>
+        <v>0.0002257401178285341</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02652999231938333</v>
+        <v>0.002638571425519493</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002010708344731</v>
+        <v>1.000019888981402</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02765942901707455</v>
+        <v>0.002750900873699688</v>
       </c>
       <c r="P14" t="n">
-        <v>80.51791760135751</v>
+        <v>89.75007053993185</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.7408198220081</v>
+        <v>129.9729727605825</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_13</t>
+          <t>model_14_3_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9991949105161562</v>
+        <v>0.9999914271300926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9988654413000487</v>
+        <v>0.9991004235684716</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9973092120719143</v>
+        <v>0.9999960592147423</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9994887681775116</v>
+        <v>0.9999866849362462</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9977548807381397</v>
+        <v>0.9999958352803285</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0007515156938241792</v>
+        <v>8.002397753019076e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001059060745033307</v>
+        <v>0.0008397151119900828</v>
       </c>
       <c r="I15" t="n">
-        <v>0.004476029142291327</v>
+        <v>1.083246750371276e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0002162110836777674</v>
+        <v>6.710074706504031e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002346120112984548</v>
+        <v>3.896660728437654e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001436364185074782</v>
+        <v>0.0002119967170019239</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02741378656486877</v>
+        <v>0.002828850959845548</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00214690529025</v>
+        <v>1.00002286098642</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02858084821329659</v>
+        <v>0.002949281001734939</v>
       </c>
       <c r="P15" t="n">
-        <v>80.38683693131412</v>
+        <v>89.47153868412772</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.6097391519647</v>
+        <v>129.6944409047783</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_14</t>
+          <t>model_14_3_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9991492058738957</v>
+        <v>0.9999925547630938</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988337489139147</v>
+        <v>0.9990999853302381</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9971599781553999</v>
+        <v>0.999946871586983</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9994434440131291</v>
+        <v>0.9999517625552962</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9976269299221465</v>
+        <v>0.9999792050165097</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0007941789711724491</v>
+        <v>6.949801843861139e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001088644196354413</v>
+        <v>0.0008401241881446386</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004724274406202367</v>
+        <v>1.460398803551091e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002353796609589026</v>
+        <v>2.430907306190825e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002479827033580635</v>
+        <v>1.945653054870958e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001471705322223917</v>
+        <v>0.0002208992610176807</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02818118115289792</v>
+        <v>0.002636247682571033</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002268784336278</v>
+        <v>1.000019853965083</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02938091237766394</v>
+        <v>0.0027484782042031</v>
       </c>
       <c r="P16" t="n">
-        <v>80.27640343523522</v>
+        <v>89.75359482093739</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4993056558858</v>
+        <v>129.976497041588</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_15</t>
+          <t>model_14_3_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9991088117129691</v>
+        <v>0.9999925612885429</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9988052801047563</v>
+        <v>0.9990986881116624</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9970285351442489</v>
+        <v>0.9999449770185622</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9994016881780994</v>
+        <v>0.9999512946572305</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9975138614258261</v>
+        <v>0.9999788007052498</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0008318851472987396</v>
+        <v>6.943710623594873e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001115218580067586</v>
+        <v>0.0008413350847438048</v>
       </c>
       <c r="I17" t="n">
-        <v>0.004942925137581504</v>
+        <v>1.512476878125692e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000253039113959491</v>
+        <v>2.4544868476259e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002597982125770498</v>
+        <v>1.983481862875796e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001502162385168448</v>
+        <v>0.0002161463379245968</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02884241923450146</v>
+        <v>0.002635092147078518</v>
       </c>
       <c r="N17" t="n">
-        <v>1.002376502098749</v>
+        <v>1.000019836563886</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03007030073335287</v>
+        <v>0.002747273475172381</v>
       </c>
       <c r="P17" t="n">
-        <v>80.18363234156824</v>
+        <v>89.75534850868793</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.4065345622189</v>
+        <v>129.9782507293386</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_16</t>
+          <t>model_14_3_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9990729212802139</v>
+        <v>0.9999925609519895</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9987796323492334</v>
+        <v>0.9990973776304676</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9969120855385392</v>
+        <v>0.9999432912198996</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9993633287431761</v>
+        <v>0.999950913590172</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9974134138554938</v>
+        <v>0.9999784504454587</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0008653872908678093</v>
+        <v>6.94402478133918e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001139159634041831</v>
+        <v>0.0008425583614156138</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005136634877143382</v>
+        <v>1.558816269991462e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002692621553063161</v>
+        <v>2.4736905741598e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002702948516224849</v>
+        <v>2.016253422075631e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001528880912678361</v>
+        <v>0.0002118047749599988</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0294174657451625</v>
+        <v>0.002635151756794887</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00247220991943</v>
+        <v>1.000019837461361</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03066982816448314</v>
+        <v>0.002747335622597785</v>
       </c>
       <c r="P18" t="n">
-        <v>80.10466683225711</v>
+        <v>89.7552580237427</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.3275690529077</v>
+        <v>129.9781602443933</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_17</t>
+          <t>model_14_3_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9990415823782066</v>
+        <v>0.9999925139793193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9987569674577457</v>
+        <v>0.9990963144342783</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9968107233240372</v>
+        <v>0.9999413914562628</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9993286039505009</v>
+        <v>0.9999503636404192</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9973257102269297</v>
+        <v>0.9999780232739705</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0008946407802727396</v>
+        <v>6.987871707128331e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001160316315371925</v>
+        <v>0.0008435508083894331</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005305247282937974</v>
+        <v>1.611037151144582e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002839480272034097</v>
+        <v>2.501405078530102e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002794597655070692</v>
+        <v>2.056221114837342e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001551656155208285</v>
+        <v>0.0002085407743524528</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02991054630515363</v>
+        <v>0.002643458285490492</v>
       </c>
       <c r="N19" t="n">
-        <v>1.002555780324782</v>
+        <v>1.000019962721815</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03118390018473056</v>
+        <v>0.002755995777416847</v>
       </c>
       <c r="P19" t="n">
-        <v>80.03817656616158</v>
+        <v>89.74266904977341</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.2610787868122</v>
+        <v>129.965571270424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_3_18</t>
+          <t>model_14_3_0</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9990139241697962</v>
+        <v>0.9999906500346134</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9987367535870665</v>
+        <v>0.999095877706924</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9967214816041075</v>
+        <v>0.9999988991277123</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9992971659251325</v>
+        <v>0.9999903815913229</v>
       </c>
       <c r="F20" t="n">
-        <v>0.997248318715299</v>
+        <v>0.9999972479843882</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0009204585037688287</v>
+        <v>8.727782272334735e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001179185076364577</v>
+        <v>0.0008439584742044994</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005453697681033165</v>
+        <v>3.026088076953285e-07</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000297243853547934</v>
+        <v>4.847159726349934e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002875470767290549</v>
+        <v>2.574884267022631e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001571318770449395</v>
+        <v>0.000200375554471177</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03033905904554109</v>
+        <v>0.00295428202315465</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00262953554721</v>
+        <v>1.000024933241031</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03163065559961997</v>
+        <v>0.003080051925087207</v>
       </c>
       <c r="P20" t="n">
-        <v>79.98127727681265</v>
+        <v>89.29799851125496</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.2041794974633</v>
+        <v>129.5209007319056</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9989899821949476</v>
+        <v>0.999992485030236</v>
       </c>
       <c r="C21" t="n">
-        <v>0.998719162522217</v>
+        <v>0.9990952641583697</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9966444342983933</v>
+        <v>0.9999397815386291</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9992691531162822</v>
+        <v>0.9999500048132935</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9971813261713897</v>
+        <v>0.9999776901501083</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0009428072863586781</v>
+        <v>7.01489440565776e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001195605563242995</v>
+        <v>0.0008445311948483069</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005581863108754849</v>
+        <v>1.65529071816571e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003090910811499073</v>
+        <v>2.519488032275264e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002945477094952379</v>
+        <v>2.087389375220487e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00158796122144486</v>
+        <v>0.0002050251712754552</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03070516709543653</v>
+        <v>0.002648564593446375</v>
       </c>
       <c r="N21" t="n">
-        <v>1.002693380813473</v>
+        <v>1.000020039919371</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0320123496271476</v>
+        <v>0.002761319471473926</v>
       </c>
       <c r="P21" t="n">
-        <v>79.9332973170152</v>
+        <v>89.73494979434699</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.1561995376658</v>
+        <v>129.9578520149976</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9989690043260292</v>
+        <v>0.9999924013081388</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9987036424842407</v>
+        <v>0.9990945247504821</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9965770965075009</v>
+        <v>0.9999377709269563</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9992439699154153</v>
+        <v>0.9999494159461716</v>
       </c>
       <c r="F22" t="n">
-        <v>0.997122634273689</v>
+        <v>0.9999772362148565</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0009623892061720072</v>
+        <v>7.093045308361691e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001210092837442997</v>
+        <v>0.0008452213996551465</v>
       </c>
       <c r="I22" t="n">
-        <v>0.005693877107058454</v>
+        <v>1.710558600537733e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003197416058441493</v>
+        <v>2.54916376236498e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003006809356451302</v>
+        <v>2.129861181451356e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001602209293521464</v>
+        <v>0.0002024451405844105</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03102239845937137</v>
+        <v>0.002663277174527971</v>
       </c>
       <c r="N22" t="n">
-        <v>1.002749321797255</v>
+        <v>1.000020263178296</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0323430861870046</v>
+        <v>0.002776658397591407</v>
       </c>
       <c r="P22" t="n">
-        <v>79.8921832177974</v>
+        <v>89.71279157601509</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.115085438448</v>
+        <v>129.9356937966657</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9989505257154282</v>
+        <v>0.999992363476031</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9986898894828786</v>
+        <v>0.9990936240115746</v>
       </c>
       <c r="D23" t="n">
-        <v>0.996517908654308</v>
+        <v>0.9999363355544787</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9992213161312982</v>
+        <v>0.9999491384741354</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9970709409685031</v>
+        <v>0.9999769506403292</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0009796381780508123</v>
+        <v>7.128359920336411e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001222930660527448</v>
+        <v>0.0008460621998873594</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005792333976511402</v>
+        <v>1.75001425392622e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003293223850482586</v>
+        <v>2.563146857952041e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003060828180779831</v>
+        <v>2.156580555939131e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0016144806052951</v>
+        <v>0.0001994831830806923</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03129917216238813</v>
+        <v>0.002669898859570604</v>
       </c>
       <c r="N23" t="n">
-        <v>1.002798598092191</v>
+        <v>1.000020364063917</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03263164271955934</v>
+        <v>0.002783561981475083</v>
       </c>
       <c r="P23" t="n">
-        <v>79.85665452108719</v>
+        <v>89.70285875039237</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.0795567417378</v>
+        <v>129.925760971043</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9989343244807629</v>
+        <v>0.9999923076978323</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9986777761019765</v>
+        <v>0.9990928698222514</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9964661377782544</v>
+        <v>0.9999348606384437</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999200984090244</v>
+        <v>0.9999487913045912</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9970256208492492</v>
+        <v>0.9999766404870289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.000994761319458865</v>
+        <v>7.180426420511677e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00123423796988365</v>
+        <v>0.0008467662025154637</v>
       </c>
       <c r="I24" t="n">
-        <v>0.005878452970698557</v>
+        <v>1.790556884328048e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003379212484920402</v>
+        <v>2.580642332402051e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003108187109595299</v>
+        <v>2.18559960836505e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001625085892787147</v>
+        <v>0.000196969216019698</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03153983702334026</v>
+        <v>0.002679631769574259</v>
       </c>
       <c r="N24" t="n">
-        <v>1.002841801384632</v>
+        <v>1.00002051280578</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03288255318188713</v>
+        <v>0.002793709241607495</v>
       </c>
       <c r="P24" t="n">
-        <v>79.82601545904463</v>
+        <v>89.6883035732485</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.0489176796953</v>
+        <v>129.9112057938991</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9989198031927129</v>
+        <v>0.9999922679089995</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9986669021183524</v>
+        <v>0.9990921355347891</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9964198052687954</v>
+        <v>0.9999336638959869</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9991825430680709</v>
+        <v>0.9999485644442009</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9969850119283803</v>
+        <v>0.9999764035961823</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001008316304442648</v>
+        <v>7.217567549392652e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001244388356283987</v>
+        <v>0.0008474516276299826</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005955525437246199</v>
+        <v>1.82345305330386e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003457203588227876</v>
+        <v>2.592074873731598e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003150622898034494</v>
+        <v>2.207763963517729e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001634439508897862</v>
+        <v>0.0001943849991111633</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03175399666880765</v>
+        <v>0.002686553098189695</v>
       </c>
       <c r="N25" t="n">
-        <v>1.002880524819432</v>
+        <v>1.000020618909335</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03310583004683366</v>
+        <v>0.002800925225511216</v>
       </c>
       <c r="P25" t="n">
-        <v>79.79894672893221</v>
+        <v>89.67798513268174</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.0218489495828</v>
+        <v>129.9008873533324</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9989070387158389</v>
+        <v>0.9999922286064333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9986573095380648</v>
+        <v>0.9990914502132872</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9963791544422483</v>
+        <v>0.9999325570198516</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9991660544920518</v>
+        <v>0.9999483588887468</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9969493202979123</v>
+        <v>0.9999761856438369</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001020231383308797</v>
+        <v>7.254254769783606e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001253342608916947</v>
+        <v>0.0008480913451699755</v>
       </c>
       <c r="I26" t="n">
-        <v>0.006023146628193175</v>
+        <v>1.853878968401818e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003526937371075241</v>
+        <v>2.602433761070473e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003187920182650349</v>
+        <v>2.228156364736146e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001642527471061968</v>
+        <v>0.0001920153146825526</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03194106108614422</v>
+        <v>0.00269337237859595</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00291456342443</v>
+        <v>1.000020723716178</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03330085818369297</v>
+        <v>0.002808034816802221</v>
       </c>
       <c r="P26" t="n">
-        <v>79.77545166206107</v>
+        <v>89.66784479287551</v>
       </c>
       <c r="Q26" t="n">
-        <v>119.9983538827117</v>
+        <v>129.8907470135261</v>
       </c>
     </row>
   </sheetData>
